--- a/data/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
+++ b/data/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-oyster-oa/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/paper-gigas-early-gametogenic-exposure/data/2017-07-30-Pacific-Oyster-Larvae/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,6 @@
     <sheet name="pools" sheetId="2" r:id="rId2"/>
     <sheet name="crosses" sheetId="3" r:id="rId3"/>
     <sheet name="hatching" sheetId="4" r:id="rId4"/>
-    <sheet name="restocking" sheetId="5" r:id="rId5"/>
-    <sheet name="algae" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="155">
   <si>
     <t>Sex</t>
   </si>
@@ -283,12 +281,6 @@
     <t>Average Hatch Rate</t>
   </si>
   <si>
-    <t>Treatment Cross</t>
-  </si>
-  <si>
-    <t>Total D-Hinge</t>
-  </si>
-  <si>
     <t>D-Hinge Count 1</t>
   </si>
   <si>
@@ -308,15 +300,6 @@
   </si>
   <si>
     <t>Volume 3</t>
-  </si>
-  <si>
-    <t>LowF x AmbM</t>
-  </si>
-  <si>
-    <t>AmbF x AmbM</t>
-  </si>
-  <si>
-    <t>HSF x HSM</t>
   </si>
   <si>
     <t>1-11</t>
@@ -481,100 +464,10 @@
     <t>58-60</t>
   </si>
   <si>
-    <t>1-15
-2-16
-4-18
-5-19
-6-20
-7-21</t>
-  </si>
-  <si>
-    <t>9-23
-10-24
-11-25
-12-26
-13-27
-14-28</t>
-  </si>
-  <si>
-    <t>29-43
-30-44
-32-46
-33-47
-34-48
-35-49</t>
-  </si>
-  <si>
-    <t>LowF x LowM</t>
-  </si>
-  <si>
-    <t>AmbF x LowM</t>
-  </si>
-  <si>
-    <t>37-51
-38-52
-39-53
-40-54
-41-55
-42-56</t>
-  </si>
-  <si>
-    <t>57-59
-58-60</t>
-  </si>
-  <si>
-    <t>Tripours Numbers</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5</t>
-  </si>
-  <si>
-    <t>6, 7, 8, 9, 10</t>
-  </si>
-  <si>
-    <t>11, 12, 13, 14, 15</t>
-  </si>
-  <si>
-    <t>17, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>21, 22, 23, 24</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>Amount Female Added (mL)</t>
   </si>
   <si>
     <t>D-Hinge in Tripour</t>
-  </si>
-  <si>
-    <t>Final Bucket Numbers</t>
-  </si>
-  <si>
-    <t>Volume Needed</t>
-  </si>
-  <si>
-    <t>Volume Needed Per Bucket</t>
-  </si>
-  <si>
-    <t>Larvae Needed per Bucket</t>
   </si>
   <si>
     <t>Tripour Volume (µL)</t>
@@ -587,39 +480,6 @@
   </si>
   <si>
     <t>Maybe double eggs?</t>
-  </si>
-  <si>
-    <t>Maximum Total Larvae Per Replicate</t>
-  </si>
-  <si>
-    <t>Tripour Volume</t>
-  </si>
-  <si>
-    <t>count 1</t>
-  </si>
-  <si>
-    <t>count 2</t>
-  </si>
-  <si>
-    <t>count 3</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>Cells/mL</t>
-  </si>
-  <si>
-    <t>strains</t>
-  </si>
-  <si>
-    <t>500 609 500 ciso</t>
-  </si>
-  <si>
-    <t>Cells Needed</t>
-  </si>
-  <si>
-    <t>Volume Added</t>
   </si>
   <si>
     <t>Average hatch rate, excluding high outliers</t>
@@ -641,9 +501,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -759,7 +616,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -777,20 +634,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1184,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1192,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1216,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1240,7 +1087,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,15 +1103,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1272,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1331,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1339,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,7 +1194,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1355,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1363,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1371,7 +1218,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1379,10 +1226,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1390,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1398,7 +1245,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1406,7 +1253,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1414,7 +1261,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,7 +1269,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1430,7 +1277,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,7 +1285,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1293,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1301,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1462,7 +1309,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1325,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1333,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1494,7 +1341,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1502,7 +1349,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1357,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1365,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1373,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1389,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1550,7 +1397,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1405,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1413,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1574,7 +1421,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1429,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1437,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1445,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1453,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1461,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1622,7 +1469,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1477,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1485,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1493,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1501,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,7 +1509,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1517,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,7 +1525,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1533,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1541,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1549,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1557,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1565,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1573,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1734,7 +1581,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1742,7 +1589,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1750,7 +1597,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1758,7 +1605,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1766,7 +1613,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,15 +1621,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1806,19 +1653,19 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1875,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1886,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1899,7 +1746,7 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -18407,24 +18254,24 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -18489,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -18532,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -18623,7 +18470,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -18674,24 +18521,24 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -18742,7 +18589,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -18783,16 +18630,16 @@
         <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>79</v>
@@ -18801,22 +18648,22 @@
         <v>80</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -18824,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <f>408/2</f>
@@ -18854,16 +18701,16 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -18871,7 +18718,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="0">((AVERAGE($C$2:$E$2))/25)*2500000</f>
@@ -18891,10 +18738,10 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -18905,7 +18752,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -18925,7 +18772,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
@@ -18936,7 +18783,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -18956,10 +18803,10 @@
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -18970,7 +18817,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -18990,10 +18837,10 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -19004,7 +18851,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -19024,10 +18871,10 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -19038,7 +18885,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -19058,10 +18905,10 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -19072,7 +18919,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -19092,7 +18939,7 @@
         <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M9" s="8">
         <v>1</v>
@@ -19103,7 +18950,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -19123,10 +18970,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -19137,7 +18984,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -19157,10 +19004,10 @@
         <v>43</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -19171,7 +19018,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -19191,10 +19038,10 @@
         <v>52</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -19205,7 +19052,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -19225,10 +19072,10 @@
         <v>59</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -19239,7 +19086,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -19259,10 +19106,10 @@
         <v>62</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -19273,7 +19120,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -19293,10 +19140,10 @@
         <v>65</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -19307,7 +19154,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -19327,10 +19174,10 @@
         <v>9</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -19341,7 +19188,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -19361,10 +19208,10 @@
         <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -19375,7 +19222,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -19395,10 +19242,10 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M18" s="8">
         <v>1</v>
@@ -19409,7 +19256,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -19429,10 +19276,10 @@
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -19443,7 +19290,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -19463,10 +19310,10 @@
         <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -19477,7 +19324,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -19497,10 +19344,10 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -19511,7 +19358,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -19531,10 +19378,10 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -19545,7 +19392,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -19565,10 +19412,10 @@
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M23" s="8">
         <v>1</v>
@@ -19579,7 +19426,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -19599,10 +19446,10 @@
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -19613,7 +19460,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -19633,10 +19480,10 @@
         <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -19647,7 +19494,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -19667,10 +19514,10 @@
         <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -19681,7 +19528,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -19701,10 +19548,10 @@
         <v>59</v>
       </c>
       <c r="K27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -19715,7 +19562,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -19735,10 +19582,10 @@
         <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -19749,7 +19596,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -19769,10 +19616,10 @@
         <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -19783,7 +19630,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>234</v>
@@ -19812,16 +19659,16 @@
         <v>9</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -19829,7 +19676,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:F56" si="2">((AVERAGE($C$30:$E$30))/20)*2500000</f>
@@ -19849,10 +19696,10 @@
         <v>10</v>
       </c>
       <c r="K31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -19863,7 +19710,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
@@ -19883,10 +19730,10 @@
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M32" s="8">
         <v>0</v>
@@ -19897,7 +19744,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
@@ -19917,10 +19764,10 @@
         <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -19931,7 +19778,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
@@ -19951,10 +19798,10 @@
         <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -19965,7 +19812,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
@@ -19985,10 +19832,10 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -19999,7 +19846,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
@@ -20019,10 +19866,10 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -20033,7 +19880,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
@@ -20053,10 +19900,10 @@
         <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M37" s="8">
         <v>1</v>
@@ -20067,7 +19914,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
@@ -20087,10 +19934,10 @@
         <v>35</v>
       </c>
       <c r="K38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -20101,7 +19948,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
@@ -20121,10 +19968,10 @@
         <v>43</v>
       </c>
       <c r="K39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -20135,7 +19982,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
@@ -20155,10 +20002,10 @@
         <v>52</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -20169,7 +20016,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
@@ -20189,10 +20036,10 @@
         <v>59</v>
       </c>
       <c r="K41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -20203,7 +20050,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
@@ -20223,10 +20070,10 @@
         <v>62</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -20237,7 +20084,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
@@ -20257,10 +20104,10 @@
         <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -20271,7 +20118,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
@@ -20291,10 +20138,10 @@
         <v>9</v>
       </c>
       <c r="K44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -20305,7 +20152,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
@@ -20325,10 +20172,10 @@
         <v>10</v>
       </c>
       <c r="K45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -20339,7 +20186,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
@@ -20359,10 +20206,10 @@
         <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M46" s="8">
         <v>1</v>
@@ -20373,7 +20220,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
@@ -20393,10 +20240,10 @@
         <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -20407,7 +20254,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
@@ -20427,10 +20274,10 @@
         <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -20441,7 +20288,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
@@ -20461,10 +20308,10 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L49" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -20475,7 +20322,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
@@ -20495,10 +20342,10 @@
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -20509,7 +20356,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
@@ -20529,10 +20376,10 @@
         <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M51" s="8">
         <v>1</v>
@@ -20543,7 +20390,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
@@ -20563,10 +20410,10 @@
         <v>35</v>
       </c>
       <c r="K52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -20577,7 +20424,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
@@ -20597,10 +20444,10 @@
         <v>43</v>
       </c>
       <c r="K53" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -20611,7 +20458,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
@@ -20631,10 +20478,10 @@
         <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -20645,7 +20492,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
@@ -20665,10 +20512,10 @@
         <v>59</v>
       </c>
       <c r="K55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -20679,7 +20526,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
@@ -20699,10 +20546,10 @@
         <v>62</v>
       </c>
       <c r="K56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -20713,7 +20560,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <f>((AVERAGE($C$30:$E$30))/20)*2500000</f>
@@ -20733,10 +20580,10 @@
         <v>65</v>
       </c>
       <c r="K57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L57" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -20747,7 +20594,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C58">
         <v>247</v>
@@ -20776,16 +20623,16 @@
         <v>73</v>
       </c>
       <c r="K58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -20793,7 +20640,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F59">
         <f t="shared" ref="F59:F61" si="3">((AVERAGE($C$58:$E$58))/20)*1000000</f>
@@ -20810,13 +20657,13 @@
         <v>19.021739130434781</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -20827,7 +20674,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
@@ -20847,10 +20694,10 @@
         <v>73</v>
       </c>
       <c r="K60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -20861,7 +20708,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
@@ -20878,13 +20725,13 @@
         <v>19.021739130434781</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -20915,56 +20762,56 @@
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>82</v>
       </c>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <f>2*10.0190839694656</f>
@@ -21003,14 +20850,14 @@
         <f>(K2*J2)/E2</f>
         <v>71200</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="14">
         <f>L2/C2</f>
         <v>0.33904761904762076</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" si="0">2*10.0190839694656</f>
@@ -21049,14 +20896,14 @@
         <f>(K3*J3)/E3</f>
         <v>98933.333333333343</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="14">
         <f t="shared" ref="M3:M27" si="3">L3/C3</f>
         <v>0.47111111111111353</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -21095,14 +20942,14 @@
         <f>(K4*J4)/E4</f>
         <v>107280</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <f t="shared" si="3"/>
         <v>0.51085714285714545</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -21141,14 +20988,14 @@
         <f t="shared" ref="L5:L27" si="4">(K5*J5)/E5</f>
         <v>88500</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="14">
         <f t="shared" si="3"/>
         <v>0.42142857142857354</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -21187,14 +21034,14 @@
         <f t="shared" si="4"/>
         <v>85333.333333333343</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="14">
         <f t="shared" si="3"/>
         <v>0.4063492063492084</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -21233,14 +21080,14 @@
         <f t="shared" si="4"/>
         <v>65079.365079365074</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="14">
         <f t="shared" si="3"/>
         <v>0.30990173847316854</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -21279,14 +21126,14 @@
         <f t="shared" si="4"/>
         <v>93866.666666666672</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="14">
         <f t="shared" si="3"/>
         <v>0.44698412698412926</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -21325,14 +21172,14 @@
         <f t="shared" si="4"/>
         <v>67200</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="14">
         <f t="shared" si="3"/>
         <v>0.32000000000000162</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -21371,14 +21218,14 @@
         <f t="shared" si="4"/>
         <v>100520</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="14">
         <f t="shared" si="3"/>
         <v>0.47866666666666907</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -21417,14 +21264,14 @@
         <f t="shared" si="4"/>
         <v>37777.777777777774</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="14">
         <f t="shared" si="3"/>
         <v>0.17989417989418077</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -21463,14 +21310,14 @@
         <f t="shared" si="4"/>
         <v>136800</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="14">
         <f t="shared" si="3"/>
         <v>0.65142857142857469</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -21509,14 +21356,14 @@
         <f t="shared" si="4"/>
         <v>79733.333333333343</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="14">
         <f t="shared" si="3"/>
         <v>0.37968253968254162</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <f>2*8.03571428571428</f>
@@ -21557,17 +21404,17 @@
         <f t="shared" si="4"/>
         <v>107240</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="14">
         <f t="shared" si="3"/>
         <v>0.51066666661455828</v>
       </c>
       <c r="N14" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B25" si="5">2*8.03571428571428</f>
@@ -21606,14 +21453,14 @@
         <f t="shared" si="4"/>
         <v>72727.272727272721</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="14">
         <f t="shared" si="3"/>
         <v>0.3463203462850078</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
@@ -21652,17 +21499,17 @@
         <f t="shared" si="4"/>
         <v>212666.66666666666</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="14">
         <f t="shared" si="3"/>
         <v>1.0126984125950769</v>
       </c>
       <c r="N16" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
@@ -21701,14 +21548,14 @@
         <f t="shared" si="4"/>
         <v>122320</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="14">
         <f t="shared" si="3"/>
         <v>0.58247619041675458</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
@@ -21747,14 +21594,14 @@
         <f t="shared" si="4"/>
         <v>116160</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="14">
         <f t="shared" si="3"/>
         <v>0.55314285708641442</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
@@ -21793,17 +21640,17 @@
         <f t="shared" si="4"/>
         <v>208800</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="14">
         <f t="shared" si="3"/>
         <v>0.99428571418425737</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <f t="shared" si="5"/>
@@ -21842,14 +21689,14 @@
         <f t="shared" si="4"/>
         <v>129066.66666666667</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="14">
         <f t="shared" si="3"/>
         <v>0.61460317454046054</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <f t="shared" si="5"/>
@@ -21888,14 +21735,14 @@
         <f t="shared" si="4"/>
         <v>152720</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="14">
         <f t="shared" si="3"/>
         <v>0.72723809516388793</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
@@ -21934,14 +21781,14 @@
         <f t="shared" si="4"/>
         <v>111733.33333333333</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="14">
         <f t="shared" si="3"/>
         <v>0.53206349200920033</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
@@ -21980,14 +21827,14 @@
         <f t="shared" si="4"/>
         <v>90666.666666666657</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="14">
         <f t="shared" si="3"/>
         <v>0.43174603170197634</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <f t="shared" si="5"/>
@@ -22026,14 +21873,14 @@
         <f t="shared" si="4"/>
         <v>112800</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="14">
         <f t="shared" si="3"/>
         <v>0.5371428570880471</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
@@ -22072,17 +21919,17 @@
         <f t="shared" si="4"/>
         <v>244333.33333333337</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="14">
         <f t="shared" si="3"/>
         <v>1.163492063373341</v>
       </c>
       <c r="N25" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <f>2*19.0217391304348</f>
@@ -22121,14 +21968,14 @@
         <f t="shared" si="4"/>
         <v>498666.66666666674</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="14">
         <f t="shared" si="3"/>
         <v>0.80736507936507873</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <f>2*19.0217391304348</f>
@@ -22167,19 +22014,19 @@
         <f t="shared" si="4"/>
         <v>352000</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="14">
         <f t="shared" si="3"/>
         <v>0.56990476190476136</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="M28" s="17">
+      <c r="M28" s="14">
         <f>AVERAGE(M26,M24,M23,M22,M21,M20,M18,M17,M15,M14,M13,M12,M11,M10,M9,M8,M7,M6,M5,M4,M3,M2)</f>
         <v>0.47991437564519612</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -22192,330 +22039,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="18">
-        <f>SUM(hatching!L2:L7)</f>
-        <v>516326.03174603183</v>
-      </c>
-      <c r="F2">
-        <f>4*15000</f>
-        <v>60000</v>
-      </c>
-      <c r="G2">
-        <v>800</v>
-      </c>
-      <c r="H2">
-        <f>(F2*G2)/D2</f>
-        <v>92.964516698259416</v>
-      </c>
-      <c r="I2">
-        <v>93</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="18">
-        <f>D2/5</f>
-        <v>103265.20634920636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="18">
-        <f>SUM(hatching!L8:L13)</f>
-        <v>515897.77777777775</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">4*15000</f>
-        <v>60000</v>
-      </c>
-      <c r="G3">
-        <v>800</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H6" si="1">(F3*G3)/D3</f>
-        <v>93.04168784513729</v>
-      </c>
-      <c r="I3">
-        <v>93</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="18">
-        <f>D3/5</f>
-        <v>103179.55555555555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="18">
-        <f>SUM(hatching!L14:L19)</f>
-        <v>839913.93939393933</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="G4">
-        <v>800</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>57.148712205723825</v>
-      </c>
-      <c r="I4">
-        <v>57</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" s="18">
-        <f>839913.9394/5</f>
-        <v>167982.78788000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="18">
-        <f>SUM(hatching!L20:L25)</f>
-        <v>841320</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="G5">
-        <v>800</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>57.053202110968478</v>
-      </c>
-      <c r="I5">
-        <v>57</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" s="18">
-        <f>841320/5</f>
-        <v>168264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="18">
-        <f>SUM(hatching!L26:L27)</f>
-        <v>850666.66666666674</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="G6">
-        <v>800</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>56.426332288401248</v>
-      </c>
-      <c r="I6">
-        <v>56</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="18">
-        <f>850666.6667/4</f>
-        <v>212666.66667499999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2">
-        <v>140</v>
-      </c>
-      <c r="C2">
-        <v>125</v>
-      </c>
-      <c r="D2">
-        <v>173</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>146</v>
-      </c>
-      <c r="F2">
-        <f>(E2*9)/0.0009</f>
-        <v>1460000</v>
-      </c>
-      <c r="G2">
-        <f>15000*50000</f>
-        <v>750000000</v>
-      </c>
-      <c r="H2">
-        <f>(15000*F2)/G2</f>
-        <v>29.2</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>